--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -10,9 +10,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК1-21" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК1-22" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК2-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК3-11Б" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК4-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК2-21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК3-21Б" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК4-21" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК1-41" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК1-42" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК2-41" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК3-41Б" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК4-41" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК1-61" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК2-61" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК2-62" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="АК3-61Б" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +442,3574 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Дифференциальные уравнения</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Политология</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Прикладные задачи аэрокосмических технологий</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Теория вероятностей и математическая статистика</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Уравнения математической физики</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Дифференциальная геометрия и основы тензорного исчисления</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Теоретическая механика</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Теория функций комплексного переменного и операционное исчисление</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Функциональный анализ и интегральные уравнения</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Ознакомительная практика</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК3-41Б</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Колесников Марк Александрович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21В001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК3-41Б</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Лобачев Валерий Павлович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21В003</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Основы конструирования приборов</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Правоведение</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Телекоммуникации</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Теоретическая механика</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Теория вероятностей и математическая статистика</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Учебный практикум</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Электротехника</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК4-41</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Даняев Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21В006</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК4-41</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Кириллов Илья Владимирович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21В007</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК4-41</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Смирнов Филипп Александрович</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21В009</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК4-41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Тепляков Александр Александрович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21В010</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Неуд</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК4-41</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Филипов Кирилл Викторович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21В011</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Детали машин. Курсовой проект</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Гидрогазоаэродинамика</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Строительная механика</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Технология конструкционных материалов</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Уравнения математической физики</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Электротехника и электроника</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Баллистическое проектирование автоматических космических аппаратов</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Двигательные установки</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ершов Михаил Владимирович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20В010</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ковылина Мария Арсеньевна</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20В017</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Лобахин Егор Сергеевич</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18В006</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Я</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Неуд</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Морозов Владимир Олегович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20В029</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Политов Дмитрий Павлович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20В031</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Смирнов Калислав Андреевич</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20В034</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Филиппова Полина Ивановна</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20В037</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ходырев Григорий Андреевич</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20В038</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Я</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Я</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Я</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Я</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>АК1-61</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Шиповалов Матвей Витальевич</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20В040</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Детали машин. Курсовой проект</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Гидрогазоаэродинамика</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Строительная механика</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Технология конструкционных материалов</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Уравнения математической физики</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Электротехника и электроника</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Двигательные установки</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Подводный стартовый участок крылатых ракет</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Гречихин Илья Михайлович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20В007</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ибрагимов Георгий Ильич</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20В013</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Курпеев Сергей Анатольевич</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20В022</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Максимова Полина Геннадьевна</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20В027</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Меркулова Марина Юрьевна</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20В026</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Панин Андрей Александрович</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19В034</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Толмачев Илья Юрьевич</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19В042</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Фролов Михаил Сергеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19В043</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Неуд</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>АК2-61</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Шкодина Елена Сергеевна</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20В041</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Детали машин. Курсовой проект</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Гидрогазоаэродинамика</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Строительная механика</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Технология конструкционных материалов</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Уравнения математической физики</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Электротехника и электроника</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Двигательные установки</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Подводный стартовый участок крылатых ракет</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Гаврилова Ольга Олеговна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20В005</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Говорченко Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20В006</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Зелянин Дмитрий Сергеевич</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20В012</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Камшилов Вячеслав Михайлович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20В014</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Корнеева Юлия Алексеевна</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20В019</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Крупянов Егор Эдуардович</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20В020</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Кузнецов Роман Игоревич</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20В021</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Михеев Данила Владимирович</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20В028</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Петров Максим Михайлович</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19В036</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>АК2-62</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сухоставский Алексей Вячеславович</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20В036</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Численные методы</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Геометрическое моделирование</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Прикладные задачи аэрокосмических технологий</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Теория случайных процессов</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Философия</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Методы оптимизации и вариационное исчисление</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Механика сплошной среды</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Основы сеточных методов</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Проектно-технологическая практика</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК3-61Б</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Бартоломеева Елизавета Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20В002</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК3-61Б</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Колесник Илья Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20В018</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК3-61Б</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Андреевна</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20В023</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Я</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК3-61Б</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Щербаков Никита Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19В051</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1664,7 +5241,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>АК2-11</t>
+          <t>АК2-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1736,7 +5313,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>АК2-11</t>
+          <t>АК2-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1808,7 +5385,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>АК2-11</t>
+          <t>АК2-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1880,7 +5457,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>АК2-11</t>
+          <t>АК2-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1952,7 +5529,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>АК2-11</t>
+          <t>АК2-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2024,7 +5601,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>АК2-11</t>
+          <t>АК2-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2195,7 +5772,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>АК3-11Б</t>
+          <t>АК3-21Б</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2267,7 +5844,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>АК3-11Б</t>
+          <t>АК3-21Б</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2339,7 +5916,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>АК3-11Б</t>
+          <t>АК3-21Б</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2411,7 +5988,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>АК3-11Б</t>
+          <t>АК3-21Б</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2483,7 +6060,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>АК3-11Б</t>
+          <t>АК3-21Б</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2654,7 +6231,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2726,7 +6303,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2798,7 +6375,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2870,7 +6447,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2942,7 +6519,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3014,7 +6591,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3086,7 +6663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3158,7 +6735,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3230,7 +6807,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3302,7 +6879,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>АК4-11</t>
+          <t>АК4-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3368,6 +6945,1887 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>Отл</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Теория механизмов и машин</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Теория функций комплексного переменного и операционное исчисление</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Инженерная графика</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Сопротивление материалов</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Теоретическая механика</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ознакомительная практика</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Абызова Алина Алиевна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21В018</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Иванов Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21В022</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Катышев Дмитрий Андреевич</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21В023</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Маркелов Дмитрий Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20В024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Найденова Юлия Александровна</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21В027</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Рекунов Иван Сергеевич</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21В028</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Сердюков Никита Николаевич</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21В030</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Соболев Артем Александрович</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21В032</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Чиханов Михаил Федорович</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21В033</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>АК1-41</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Шмаков Иван Денисович</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21В034</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Теория механизмов и машин</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Теория функций комплексного переменного и операционное исчисление</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Инженерная графика</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Сопротивление материалов</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Теоретическая механика</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ознакомительная практика</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ахматова Елизавета Олеговна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21В019</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Весельчаков Иван Александрович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21В020</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Нзч</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Неуд</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Викторова Ксения Артемовна</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21В021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Кутьенков Тимофей Владимирович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21В024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Неуд</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Лаврентьев Иван Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21В025</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Михайлова Валерия Игоревна</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21В026</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>АК1-42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Сергеева Елена Сергеевна</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21В029</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>№ зачётки</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Иностранный язык</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Теория механизмов и машин</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Теория функций комплексного переменного и операционное исчисление</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Элективный курс по физической культуре и спорту</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Инженерная графика</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Сопротивление материалов</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Теоретическая механика</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Непрерывная научно-производственная практика</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Ознакомительная практика</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>АК2-41</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Булдаков Иван Денисович</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21В013</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>АК2-41</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Иняков Максим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21В014</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>АК2-41</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Красильников Олег Максимович</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21В015</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>АК2-41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Пустовалов Илья Романович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21В016</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АК2-41</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Царёв Вадим Романович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21В017</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>НА</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зчт</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Отл</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Удов</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Хор</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Хор</t>
         </is>
       </c>
     </row>
